--- a/DATA/IsoData/BONAIsoData.xlsx
+++ b/DATA/IsoData/BONAIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">c650322c-f8f7-4ffe-a30f-402c19710083</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a0465ab-0293-429f-846b-1c346c5541f0</t>
   </si>
   <si>
     <t xml:space="preserve">BONA.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173515Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31440fa2-d28d-4afc-b99b-51952398f895</t>
+    <t xml:space="preserve">20210112T163725Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0f2c7fa2-47ee-456e-bbb2-4c26cd14d540</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20190515.1052</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000065979</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T180338Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63671794-8c4e-48f3-95fe-0430b41a1d67</t>
+    <t xml:space="preserve">20210112T163335Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74f5cfc3-23d3-4da3-ab66-402278b88ec0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20190627.1246</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000100317</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173730Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50a74054-2d04-4dd0-a3af-7af003055ccc</t>
+    <t xml:space="preserve">20210112T162912Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d88bd9b-e823-481c-a3b3-c913c4a9dc2d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20190717.1419</t>
@@ -131,10 +137,10 @@
     <t xml:space="preserve">A00000100431</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174200Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4b787c85-c978-4b0e-b2e8-ff66d1309ae4</t>
+    <t xml:space="preserve">20210112T160154Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36bb7d7d-6cd8-4014-a189-ddc53b7704db</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20190809.1537</t>
@@ -146,10 +152,10 @@
     <t xml:space="preserve">A00000100208</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174042Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9036abb1-ed2d-4ba3-9736-ccd05acefeb6</t>
+    <t xml:space="preserve">20210112T160932Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab658f70-2d35-49da-ab62-e1c63f90aa31</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20190823.1549</t>
@@ -161,7 +167,7 @@
     <t xml:space="preserve">A00000100228</t>
   </si>
   <si>
-    <t xml:space="preserve">71b8c55d-e63e-4ee0-a164-a18e89999ecd</t>
+    <t xml:space="preserve">8fc85d4e-7e3c-4c71-95bd-16485ee1a1cd</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20190920.1320</t>
@@ -173,10 +179,10 @@
     <t xml:space="preserve">A00000101387</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T174148Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b36317f6-80ca-4191-9081-2ce446307b9c</t>
+    <t xml:space="preserve">20210112T163204Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91be38fb-d3c9-4e8d-985a-22b7e035ba11</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20191018.1300</t>
@@ -188,10 +194,10 @@
     <t xml:space="preserve">A00000101389</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173951Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5d534657-a503-4949-85c0-6739b4610803</t>
+    <t xml:space="preserve">20210112T163716Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd6215cd-f42b-42c3-bf1f-b87d097d5890</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.BONA.20191115.1338</t>
@@ -203,7 +209,7 @@
     <t xml:space="preserve">A00000101391</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T173815Z</t>
+    <t xml:space="preserve">20210112T163553Z</t>
   </si>
 </sst>
 </file>
@@ -541,7 +547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -595,23 +601,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43545.8368055556</v>
@@ -632,35 +641,38 @@
         <v>0.142</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43574.8909722222</v>
@@ -681,35 +693,38 @@
         <v>0.214</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43600.7861111111</v>
@@ -730,38 +745,41 @@
         <v>0.223</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>43623.8652777778</v>
+        <v>43643.8652777778</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>43663.9298611111</v>
@@ -779,38 +797,41 @@
         <v>0.232</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>43623.8652777778</v>
+        <v>43663.9375</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>43686.9840277778</v>
@@ -828,35 +849,38 @@
         <v>0.21</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43686.9840277778</v>
@@ -877,35 +901,38 @@
         <v>0.139</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43700.9965277778</v>
@@ -926,35 +953,38 @@
         <v>0.182</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43742.9708333333</v>
@@ -975,35 +1005,38 @@
         <v>0.339</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43771.3236111111</v>
@@ -1024,17 +1057,20 @@
         <v>0.264</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
